--- a/feed_me.xlsx
+++ b/feed_me.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>is it now working so well?</t>
+          <t>icon again thats dope</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i am loving it here</t>
+          <t>dll will not definitely fail</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>create a server for yourself too. make it private for extra security</t>
+          <t>is it good?</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,115 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>yeh</t>
+          <t>install pygame it is really fun and well</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>yes please make it cool</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>yeah yeah</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>yes check it out</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>hcj</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>the onedir starts a litllebit faster right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>trying out the shortcut right here is it good?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>if you get dll errors send me a message. I will def receive it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>but this one here works</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUBNETTING </t>
         </is>
       </c>
     </row>
